--- a/Selenium/Bugs/data/genre/CCM.xlsx
+++ b/Selenium/Bugs/data/genre/CCM.xlsx
@@ -223,7 +223,7 @@
     <t>Hold Me Now</t>
   </si>
   <si>
-    <t>Go Down Moses</t>
+    <t xml:space="preserve">Go Down Moses </t>
   </si>
   <si>
     <t>Lift Ev'ry Voice and Sing (Homecoming Live)</t>
